--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BDF/15/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BDF/15/seed1/result_data_RandomForest.xlsx
@@ -491,7 +491,7 @@
         <v>-6.85</v>
       </c>
       <c r="E3" t="n">
-        <v>12.4126</v>
+        <v>12.5694</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>-22.38</v>
       </c>
       <c r="B4" t="n">
-        <v>6.256299999999997</v>
+        <v>5.953099999999997</v>
       </c>
       <c r="C4" t="n">
         <v>-11.3</v>
       </c>
       <c r="D4" t="n">
-        <v>-8.170599999999995</v>
+        <v>-8.035200000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>13.5029</v>
+        <v>13.3829</v>
       </c>
     </row>
     <row r="5">
@@ -522,7 +522,7 @@
         <v>-15.14</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.624499999999998</v>
+        <v>-8.606500000000002</v>
       </c>
       <c r="E5" t="n">
         <v>9.970000000000001</v>
@@ -533,7 +533,7 @@
         <v>-20.35</v>
       </c>
       <c r="B6" t="n">
-        <v>9.481</v>
+        <v>9.358499999999998</v>
       </c>
       <c r="C6" t="n">
         <v>-12.89</v>
@@ -550,7 +550,7 @@
         <v>-21.21</v>
       </c>
       <c r="B7" t="n">
-        <v>6.897999999999999</v>
+        <v>6.788499999999996</v>
       </c>
       <c r="C7" t="n">
         <v>-10.59</v>
@@ -573,7 +573,7 @@
         <v>-11.02</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.271399999999996</v>
+        <v>-8.147400000000001</v>
       </c>
       <c r="E8" t="n">
         <v>12.94</v>
@@ -593,7 +593,7 @@
         <v>-9.9</v>
       </c>
       <c r="E9" t="n">
-        <v>14.55590000000002</v>
+        <v>14.05670000000001</v>
       </c>
     </row>
     <row r="10">
@@ -627,7 +627,7 @@
         <v>-8.01</v>
       </c>
       <c r="E11" t="n">
-        <v>13.3856</v>
+        <v>13.3551</v>
       </c>
     </row>
     <row r="12">
@@ -678,7 +678,7 @@
         <v>-7.97</v>
       </c>
       <c r="E14" t="n">
-        <v>13.44110000000001</v>
+        <v>13.03300000000001</v>
       </c>
     </row>
     <row r="15">
@@ -703,13 +703,13 @@
         <v>-20.57</v>
       </c>
       <c r="B16" t="n">
-        <v>8.410100000000005</v>
+        <v>8.274000000000008</v>
       </c>
       <c r="C16" t="n">
         <v>-9.779999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.073300000000003</v>
+        <v>-7.929900000000004</v>
       </c>
       <c r="E16" t="n">
         <v>13.16</v>
@@ -746,7 +746,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>12.3466</v>
+        <v>12.5098</v>
       </c>
     </row>
     <row r="19">
@@ -771,7 +771,7 @@
         <v>-22.69</v>
       </c>
       <c r="B20" t="n">
-        <v>5.9614</v>
+        <v>6.067699999999998</v>
       </c>
       <c r="C20" t="n">
         <v>-14.65</v>
@@ -811,7 +811,7 @@
         <v>-10.65</v>
       </c>
       <c r="D22" t="n">
-        <v>-7.948099999999995</v>
+        <v>-7.976200000000005</v>
       </c>
       <c r="E22" t="n">
         <v>12.2</v>
@@ -865,7 +865,7 @@
         <v>-7.71</v>
       </c>
       <c r="E25" t="n">
-        <v>12.95389999999999</v>
+        <v>13.06409999999999</v>
       </c>
     </row>
   </sheetData>
